--- a/06_pandas/multiresistente_keime.xlsx
+++ b/06_pandas/multiresistente_keime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Landkreis-Daten" sheetId="1" state="visible" r:id="rId2"/>
